--- a/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
+++ b/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secret\fork\Labwork\3 Курс\МДК 02.03\Лабораторная работа 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secret\Laboratory-work\3 Курс\МДК 02.03\Лабораторная работа 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAC1D91-C62C-47BA-A0A9-0B2B385F2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04AA76-2300-4EAC-872C-EB829C376BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1_fixed" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Годы (xᵢ)</t>
   </si>
@@ -51,36 +47,12 @@
     <t>xᵢ·yᵢ</t>
   </si>
   <si>
-    <t>Δyᵢᵇ = yᵢ−y₀</t>
-  </si>
-  <si>
-    <t>Δyᵢᶜ = yᵢ−yᵢ₋₁</t>
-  </si>
-  <si>
-    <t>Tᵢᵇ = yᵢ/y₀·100</t>
-  </si>
-  <si>
-    <t>Tᵢᶜ = yᵢ/yᵢ₋₁·100</t>
-  </si>
-  <si>
-    <t>tᵢᵇ = (yᵢ−y₀)/y₀·100</t>
-  </si>
-  <si>
-    <t>tᵢᶜ = (yᵢ−yᵢ₋₁)/yᵢ₋₁·100</t>
-  </si>
-  <si>
     <t>Выровненный уровень ŷᵢ</t>
   </si>
   <si>
     <t>Остаток εᵢ = yᵢ−ŷᵢ</t>
   </si>
   <si>
-    <t>εᵢ²</t>
-  </si>
-  <si>
-    <t>Кᵢᶜ = yᵢ/yᵢ₋₁</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -111,12 +83,6 @@
     <t>∑xᵢyᵢ</t>
   </si>
   <si>
-    <t>a₂ (наклон)</t>
-  </si>
-  <si>
-    <t>a₁ (св. член)</t>
-  </si>
-  <si>
     <t>SSE = ∑εᵢ²</t>
   </si>
   <si>
@@ -135,9 +101,6 @@
     <t>Средний абсолютный прирост (обычно)</t>
   </si>
   <si>
-    <t>Средний темп роста T̄р по методичке</t>
-  </si>
-  <si>
     <t>Средний темп прироста t̄р</t>
   </si>
   <si>
@@ -147,9 +110,6 @@
     <t>Коэф. вариации V, %</t>
   </si>
   <si>
-    <t>LINEST (ЛИНЕЙН) по x=годы</t>
-  </si>
-  <si>
     <t>Год (xᵢ)</t>
   </si>
   <si>
@@ -307,13 +267,43 @@
   </si>
   <si>
     <t>8. Сделать выводы по работе.</t>
+  </si>
+  <si>
+    <t>базовый прирост</t>
+  </si>
+  <si>
+    <t>цепной прирост</t>
+  </si>
+  <si>
+    <t>базовый прирост темп</t>
+  </si>
+  <si>
+    <t>цепной прирост темп</t>
+  </si>
+  <si>
+    <t>среднеквадратическое отклонение. точность полученной динамической модели</t>
+  </si>
+  <si>
+    <t>a₁</t>
+  </si>
+  <si>
+    <t>a₂</t>
+  </si>
+  <si>
+    <t>Средний темп роста T̄р</t>
+  </si>
+  <si>
+    <t>средний абсолютный прирост</t>
+  </si>
+  <si>
+    <t>средний абсолютный прирост %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +316,28 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -361,9 +373,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,7 +406,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -737,7 +762,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1332,7 +1357,20 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data"/>
@@ -1345,9 +1383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1385,9 +1423,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,9 +1458,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,9 +1510,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1631,30 +1703,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
     <col min="3" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="4" customWidth="1"/>
     <col min="9" max="10" width="22" style="4" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10" style="4" customWidth="1"/>
+    <col min="11" max="11" width="29.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="36" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" style="4" customWidth="1"/>
     <col min="14" max="14" width="14" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="15" max="15" width="27.1796875" style="4" customWidth="1"/>
+    <col min="16" max="19" width="9.1796875" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1668,37 +1742,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>2010</v>
       </c>
@@ -1727,21 +1804,28 @@
         <v>0</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K12" si="5">$B$21 + $B$20*A2</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K12" si="5">(B2-B$2)/(COUNT($A$2:$A$12)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L12" si="6">POWER(B2/B$2,1/COUNT($A$2:$A$12))</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <f>$B$21 + $B$20*A2</f>
         <v>18759.909090909117</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L12" si="6">B2-K2</f>
+      <c r="N2" s="1">
+        <f>B2-M2</f>
         <v>-42.909090909117367</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M12" si="7">L2^2</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O12" si="7">N2^2</f>
         <v>1841.1900826468986</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -1780,24 +1864,28 @@
         <f t="shared" ref="J3:J12" si="10">(B3-B2)/B2*100</f>
         <v>-1.0685473099321472E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99999028546169855</v>
+      </c>
+      <c r="M3" s="1">
+        <f>$B$21 + $B$20*A3</f>
         <v>18645.890909090929</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="6"/>
+      <c r="N3" s="1">
+        <f>B3-M3</f>
         <v>69.109090909070801</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="7"/>
         <v>4776.0664462782124</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="11">B3/B2</f>
-        <v>0.99989314526900674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -1836,24 +1924,28 @@
         <f t="shared" si="10"/>
         <v>-1.3732300293881914</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <f t="shared" si="5"/>
+        <v>-25.9</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99873404554696465</v>
+      </c>
+      <c r="M4" s="1">
+        <f>$B$21 + $B$20*A4</f>
         <v>18531.872727272741</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" si="6"/>
+      <c r="N4" s="1">
+        <f>B4-M4</f>
         <v>-73.872727272741031</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="7"/>
         <v>5457.1798347127769</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="11"/>
-        <v>0.98626769970611805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -1892,24 +1984,28 @@
         <f t="shared" si="10"/>
         <v>0.12460721638314011</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <f t="shared" si="5"/>
+        <v>-23.6</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99884711739917331</v>
+      </c>
+      <c r="M5" s="1">
+        <f>$B$21 + $B$20*A5</f>
         <v>18417.854545454553</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" si="6"/>
+      <c r="N5" s="1">
+        <f>B5-M5</f>
         <v>63.145454545447137</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="7"/>
         <v>3987.3484297511304</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="11"/>
-        <v>1.0012460721638314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -1948,24 +2044,28 @@
         <f t="shared" si="10"/>
         <v>-1.0821925220496726</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <f t="shared" si="5"/>
+        <v>-43.6</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99785957283623328</v>
+      </c>
+      <c r="M6" s="1">
+        <f>$B$21 + $B$20*A6</f>
         <v>18303.836363636394</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="6"/>
+      <c r="N6" s="1">
+        <f>B6-M6</f>
         <v>-22.836363636393799</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="7"/>
         <v>521.49950413360898</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="11"/>
-        <v>0.98917807477950326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -2004,24 +2104,28 @@
         <f t="shared" si="10"/>
         <v>-0.16957496854657841</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <f t="shared" si="5"/>
+        <v>-46.7</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99770562504130733</v>
+      </c>
+      <c r="M7" s="1">
+        <f>$B$21 + $B$20*A7</f>
         <v>18189.818181818206</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" si="6"/>
+      <c r="N7" s="1">
+        <f>B7-M7</f>
         <v>60.18181818179437</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="7"/>
         <v>3621.8512396665556</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="11"/>
-        <v>0.99830425031453418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -2060,24 +2164,28 @@
         <f t="shared" si="10"/>
         <v>-1.4246575342465753</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <f t="shared" si="5"/>
+        <v>-72.7</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99640500897888007</v>
+      </c>
+      <c r="M8" s="1">
+        <f>$B$21 + $B$20*A8</f>
         <v>18075.800000000017</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" si="6"/>
+      <c r="N8" s="1">
+        <f>B8-M8</f>
         <v>-85.800000000017462</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="7"/>
         <v>7361.6400000029962</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="11"/>
-        <v>0.98575342465753424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -2116,24 +2224,28 @@
         <f t="shared" si="10"/>
         <v>0.15008337965536411</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <f t="shared" si="5"/>
+        <v>-70</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99654086526088204</v>
+      </c>
+      <c r="M9" s="1">
+        <f>$B$21 + $B$20*A9</f>
         <v>17961.781818181829</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" si="6"/>
+      <c r="N9" s="1">
+        <f>B9-M9</f>
         <v>55.218181818170706</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <f t="shared" si="7"/>
         <v>3049.0476033045579</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="11"/>
-        <v>1.0015008337965536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -2172,24 +2284,28 @@
         <f t="shared" si="10"/>
         <v>-0.70488982627518448</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <f t="shared" si="5"/>
+        <v>-82.7</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99590021766880266</v>
+      </c>
+      <c r="M10" s="1">
+        <f>$B$21 + $B$20*A10</f>
         <v>17847.763636363641</v>
       </c>
-      <c r="L10" s="1">
-        <f t="shared" si="6"/>
+      <c r="N10" s="1">
+        <f>B10-M10</f>
         <v>42.236363636358874</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="7"/>
         <v>1783.9104132227383</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="11"/>
-        <v>0.99295110173724821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -2228,24 +2344,28 @@
         <f t="shared" si="10"/>
         <v>-1.5148127445500279</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <f t="shared" si="5"/>
+        <v>-109.8</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99451922576770291</v>
+      </c>
+      <c r="M11" s="1">
+        <f>$B$21 + $B$20*A11</f>
         <v>17733.745454545482</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="6"/>
+      <c r="N11" s="1">
+        <f>B11-M11</f>
         <v>-114.74545454548206</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <f t="shared" si="7"/>
         <v>13166.51933884929</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="11"/>
-        <v>0.98485187255449969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2020</v>
       </c>
@@ -2284,59 +2404,63 @@
         <f t="shared" si="10"/>
         <v>0.28946024178443724</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <f t="shared" si="5"/>
+        <v>-104.7</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99478058550232185</v>
+      </c>
+      <c r="M12" s="1">
+        <f>$B$21 + $B$20*A12</f>
         <v>17619.727272727294</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="6"/>
+      <c r="N12" s="1">
+        <f>B12-M12</f>
         <v>50.272727272706106</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <f t="shared" si="7"/>
         <v>2527.3471074358881</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="11"/>
-        <v>1.0028946024178444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4">
         <f>COUNT(B2:B12)</f>
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(A2:A12)</f>
         <v>22165</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <f>SUM(B2:B12)</f>
@@ -2358,9 +2482,9 @@
         <v>17671.074687839166</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
         <f>SUM(C2:C12)</f>
@@ -2382,145 +2506,140 @@
         <v>17557.056506020977</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <f>SUM(D2:D12)</f>
         <v>403164778</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1">
         <f>(B14*B18 - B15*B16)/(B14*B17 - B15^2)</f>
         <v>-114.01818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <f>(B16 - B20*B15)/B14</f>
         <v>247936.45454545456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
-        <f>SUM(M2:M12)</f>
+        <f>SUM(O2:O12)</f>
         <v>48093.600000004655</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <f>SQRT(B23/(B14-2))</f>
         <v>73.100843588387207</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <f>_xlfn.T.INV.2T(B26, B14-2)</f>
         <v>2.2621571627982053</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B2:B12)</f>
         <v>18189.81818181818</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1">
         <f>(B12-B2)/(B14-1)</f>
         <v>-104.7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <f>(B12/B2)^(1/B14)*100</f>
         <v>99.478058550232191</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <f>B30-100</f>
         <v>-0.52194144976780876</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <f>MAX(B2:B12)-MIN(B2:B12)</f>
         <v>1098</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <f>_xlfn.STDEV.P(B2:B12)/B28*100</f>
         <v>2.015248578744679</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1">
-        <f>LINEST(B2:B12, A2:A12, TRUE, TRUE)</f>
-        <v>-114.01818181818182</v>
-      </c>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2529,76 +2648,76 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="44" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="29.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="53.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="30.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.54296875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="29.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.54296875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="53.1796875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="27.453125" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>2010</v>
       </c>
@@ -2645,7 +2764,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2011</v>
       </c>
@@ -2704,7 +2823,7 @@
         <v>0.99989314526900674</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2012</v>
       </c>
@@ -2763,7 +2882,7 @@
         <v>0.98626769970611805</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2013</v>
       </c>
@@ -2822,7 +2941,7 @@
         <v>1.0012460721638314</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2014</v>
       </c>
@@ -2881,7 +3000,7 @@
         <v>0.98917807477950326</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2015</v>
       </c>
@@ -2940,7 +3059,7 @@
         <v>0.99830425031453418</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2016</v>
       </c>
@@ -2999,7 +3118,7 @@
         <v>0.98575342465753424</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2017</v>
       </c>
@@ -3058,7 +3177,7 @@
         <v>1.0015008337965536</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -3117,7 +3236,7 @@
         <v>0.99295110173724821</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2019</v>
       </c>
@@ -3176,7 +3295,7 @@
         <v>0.98485187255449969</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2020</v>
       </c>
@@ -3235,66 +3354,66 @@
         <v>1.0028946024178444</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <f>SUM(C2:C12)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <f>SUM(B2:B12)</f>
         <v>200088</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4">
         <f>SUM(D2:D12)</f>
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <f>SUM(E2:E12)</f>
         <v>1187986</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4">
         <f>COUNT(B2:B12)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4">
         <f>($C$18*$C$17 - $C$14*$C$15)/($C$18*$C$16 - $C$14^2)</f>
         <v>-114.01818181818182</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4">
@@ -3302,12 +3421,12 @@
         <v>18873.927272727273</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4">
@@ -3315,12 +3434,12 @@
         <v>18189.81818181818</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="4">
@@ -3328,12 +3447,12 @@
         <v>-104.7</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="4">
@@ -3341,12 +3460,12 @@
         <v>99.426014473032666</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4">
@@ -3354,12 +3473,12 @@
         <v>-0.57398552696733418</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="e">
         <f>_xlfn.T.INV.2T(B26, B14-2)</f>
@@ -3370,12 +3489,12 @@
         <v>1098</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4">
@@ -3383,9 +3502,9 @@
         <v>2.015248578744679</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4">
@@ -3393,12 +3512,12 @@
         <v>66.122200920306994</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4">
@@ -3406,9 +3525,9 @@
         <v>17505.709090909091</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4">
@@ -3416,12 +3535,12 @@
         <v>17391.69090909091</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="4">
@@ -3429,12 +3548,12 @@
         <v>17439.586889988783</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="4">
@@ -3442,12 +3561,12 @@
         <v>17571.8312918294</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="4">
@@ -3455,12 +3574,12 @@
         <v>17325.568708170602</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="4">
@@ -3468,48 +3587,48 @@
         <v>17457.813110011219</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="e">
         <f>_xlfn.SINGLE(_xlfn.STDEV.P(B2:B12))/B28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="E35" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="E36" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E37" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E38" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E39" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
+++ b/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secret\Laboratory-work\3 Курс\МДК 02.03\Лабораторная работа 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04AA76-2300-4EAC-872C-EB829C376BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE319CC2-1D1B-41A0-8986-ECCF3DBCA9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1705,9 +1705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
+++ b/3 Курс/МДК 02.03/Лабораторная работа 7/lab7_variant6_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secret\Laboratory-work\3 Курс\МДК 02.03\Лабораторная работа 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Secret\fork\Labwork\3 Курс\МДК 02.03\Лабораторная работа 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE319CC2-1D1B-41A0-8986-ECCF3DBCA9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF3D0C-F5E3-42A3-A380-3E1544E89AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1_fixed" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,18 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,9 +102,6 @@
     <t>Средний уровень ряда ȳ</t>
   </si>
   <si>
-    <t>Средний абсолютный прирост (обычно)</t>
-  </si>
-  <si>
     <t>Средний темп прироста t̄р</t>
   </si>
   <si>
@@ -297,6 +298,9 @@
   </si>
   <si>
     <t>средний абсолютный прирост %</t>
+  </si>
+  <si>
+    <t>Средний абсолютный прирост (обычный)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +392,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,7 +410,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -762,7 +766,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1357,20 +1361,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data"/>
@@ -1383,9 +1374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,9 +1414,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1458,26 +1449,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1510,26 +1484,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1705,30 +1662,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22" style="4" customWidth="1"/>
     <col min="3" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="4" customWidth="1"/>
     <col min="9" max="10" width="22" style="4" customWidth="1"/>
-    <col min="11" max="11" width="29.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="36" style="4" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="4" customWidth="1"/>
     <col min="14" max="14" width="14" style="4" customWidth="1"/>
-    <col min="15" max="15" width="27.1796875" style="4" customWidth="1"/>
-    <col min="16" max="19" width="9.1796875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="4"/>
+    <col min="15" max="15" width="27.140625" style="4" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1742,28 +1699,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="K1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>4</v>
@@ -1772,10 +1729,10 @@
         <v>5</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2010</v>
       </c>
@@ -1813,19 +1770,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <f>$B$21 + $B$20*A2</f>
+        <f t="shared" ref="M2:M12" si="7">$B$21 + $B$20*A2</f>
         <v>18759.909090909117</v>
       </c>
       <c r="N2" s="1">
-        <f>B2-M2</f>
+        <f t="shared" ref="N2:N12" si="8">B2-M2</f>
         <v>-42.909090909117367</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ref="O2:O12" si="7">N2^2</f>
+        <f t="shared" ref="O2:O12" si="9">N2^2</f>
         <v>1841.1900826468986</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -1845,7 +1802,7 @@
         <v>-2</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F12" si="8">B3-B2</f>
+        <f t="shared" ref="F3:F12" si="10">B3-B2</f>
         <v>-2</v>
       </c>
       <c r="G3" s="1">
@@ -1853,7 +1810,7 @@
         <v>99.989314526900671</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="9">B3/B2*100</f>
+        <f t="shared" ref="H3:H12" si="11">B3/B2*100</f>
         <v>99.989314526900671</v>
       </c>
       <c r="I3" s="1">
@@ -1861,7 +1818,7 @@
         <v>-1.0685473099321472E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="10">(B3-B2)/B2*100</f>
+        <f t="shared" ref="J3:J12" si="12">(B3-B2)/B2*100</f>
         <v>-1.0685473099321472E-2</v>
       </c>
       <c r="K3">
@@ -1873,19 +1830,19 @@
         <v>0.99999028546169855</v>
       </c>
       <c r="M3" s="1">
-        <f>$B$21 + $B$20*A3</f>
+        <f t="shared" si="7"/>
         <v>18645.890909090929</v>
       </c>
       <c r="N3" s="1">
-        <f>B3-M3</f>
+        <f t="shared" si="8"/>
         <v>69.109090909070801</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4776.0664462782124</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -1905,7 +1862,7 @@
         <v>-259</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-257</v>
       </c>
       <c r="G4" s="1">
@@ -1913,7 +1870,7 @@
         <v>98.616231233637876</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98.626769970611804</v>
       </c>
       <c r="I4" s="1">
@@ -1921,7 +1878,7 @@
         <v>-1.3837687663621308</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.3732300293881914</v>
       </c>
       <c r="K4">
@@ -1933,19 +1890,19 @@
         <v>0.99873404554696465</v>
       </c>
       <c r="M4" s="1">
-        <f>$B$21 + $B$20*A4</f>
+        <f t="shared" si="7"/>
         <v>18531.872727272741</v>
       </c>
       <c r="N4" s="1">
-        <f>B4-M4</f>
+        <f t="shared" si="8"/>
         <v>-73.872727272741031</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5457.1798347127769</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -1965,7 +1922,7 @@
         <v>-236</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="G5" s="1">
@@ -1973,7 +1930,7 @@
         <v>98.739114174280061</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100.12460721638314</v>
       </c>
       <c r="I5" s="1">
@@ -1981,7 +1938,7 @@
         <v>-1.2608858257199338</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12460721638314011</v>
       </c>
       <c r="K5">
@@ -1993,19 +1950,19 @@
         <v>0.99884711739917331</v>
       </c>
       <c r="M5" s="1">
-        <f>$B$21 + $B$20*A5</f>
+        <f t="shared" si="7"/>
         <v>18417.854545454553</v>
       </c>
       <c r="N5" s="1">
-        <f>B5-M5</f>
+        <f t="shared" si="8"/>
         <v>63.145454545447137</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3987.3484297511304</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -2025,7 +1982,7 @@
         <v>-436</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-200</v>
       </c>
       <c r="G6" s="1">
@@ -2033,7 +1990,7 @@
         <v>97.670566864347919</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98.917807477950319</v>
       </c>
       <c r="I6" s="1">
@@ -2041,7 +1998,7 @@
         <v>-2.329433135652081</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.0821925220496726</v>
       </c>
       <c r="K6">
@@ -2053,19 +2010,19 @@
         <v>0.99785957283623328</v>
       </c>
       <c r="M6" s="1">
-        <f>$B$21 + $B$20*A6</f>
+        <f t="shared" si="7"/>
         <v>18303.836363636394</v>
       </c>
       <c r="N6" s="1">
-        <f>B6-M6</f>
+        <f t="shared" si="8"/>
         <v>-22.836363636393799</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>521.49950413360898</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -2085,7 +2042,7 @@
         <v>-467</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-31</v>
       </c>
       <c r="G7" s="1">
@@ -2093,7 +2050,7 @@
         <v>97.504942031308445</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>99.830425031453416</v>
       </c>
       <c r="I7" s="1">
@@ -2101,7 +2058,7 @@
         <v>-2.4950579686915639</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.16957496854657841</v>
       </c>
       <c r="K7">
@@ -2113,19 +2070,19 @@
         <v>0.99770562504130733</v>
       </c>
       <c r="M7" s="1">
-        <f>$B$21 + $B$20*A7</f>
+        <f t="shared" si="7"/>
         <v>18189.818181818206</v>
       </c>
       <c r="N7" s="1">
-        <f>B7-M7</f>
+        <f t="shared" si="8"/>
         <v>60.18181818179437</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3621.8512396665556</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -2145,7 +2102,7 @@
         <v>-727</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-260</v>
       </c>
       <c r="G8" s="1">
@@ -2153,7 +2110,7 @@
         <v>96.115830528396643</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98.575342465753423</v>
       </c>
       <c r="I8" s="1">
@@ -2161,7 +2118,7 @@
         <v>-3.8841694716033555</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.4246575342465753</v>
       </c>
       <c r="K8">
@@ -2173,19 +2130,19 @@
         <v>0.99640500897888007</v>
       </c>
       <c r="M8" s="1">
-        <f>$B$21 + $B$20*A8</f>
+        <f t="shared" si="7"/>
         <v>18075.800000000017</v>
       </c>
       <c r="N8" s="1">
-        <f>B8-M8</f>
+        <f t="shared" si="8"/>
         <v>-85.800000000017462</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7361.6400000029962</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -2205,7 +2162,7 @@
         <v>-700</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="G9" s="1">
@@ -2213,7 +2170,7 @@
         <v>96.260084415237486</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100.15008337965537</v>
       </c>
       <c r="I9" s="1">
@@ -2221,7 +2178,7 @@
         <v>-3.7399155847625156</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15008337965536411</v>
       </c>
       <c r="K9">
@@ -2233,19 +2190,19 @@
         <v>0.99654086526088204</v>
       </c>
       <c r="M9" s="1">
-        <f>$B$21 + $B$20*A9</f>
+        <f t="shared" si="7"/>
         <v>17961.781818181829</v>
       </c>
       <c r="N9" s="1">
-        <f>B9-M9</f>
+        <f t="shared" si="8"/>
         <v>55.218181818170706</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3049.0476033045579</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -2265,7 +2222,7 @@
         <v>-827</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-127</v>
       </c>
       <c r="G10" s="1">
@@ -2273,7 +2230,7 @@
         <v>95.581556873430571</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>99.295110173724822</v>
       </c>
       <c r="I10" s="1">
@@ -2281,7 +2238,7 @@
         <v>-4.4184431265694286</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-0.70488982627518448</v>
       </c>
       <c r="K10">
@@ -2293,19 +2250,19 @@
         <v>0.99590021766880266</v>
       </c>
       <c r="M10" s="1">
-        <f>$B$21 + $B$20*A10</f>
+        <f t="shared" si="7"/>
         <v>17847.763636363641</v>
       </c>
       <c r="N10" s="1">
-        <f>B10-M10</f>
+        <f t="shared" si="8"/>
         <v>42.236363636358874</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1783.9104132227383</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -2325,7 +2282,7 @@
         <v>-1098</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-271</v>
       </c>
       <c r="G11" s="1">
@@ -2333,7 +2290,7 @@
         <v>94.133675268472516</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98.485187255449972</v>
       </c>
       <c r="I11" s="1">
@@ -2341,7 +2298,7 @@
         <v>-5.866324731527488</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.5148127445500279</v>
       </c>
       <c r="K11">
@@ -2353,19 +2310,19 @@
         <v>0.99451922576770291</v>
       </c>
       <c r="M11" s="1">
-        <f>$B$21 + $B$20*A11</f>
+        <f t="shared" si="7"/>
         <v>17733.745454545482</v>
       </c>
       <c r="N11" s="1">
-        <f>B11-M11</f>
+        <f t="shared" si="8"/>
         <v>-114.74545454548206</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13166.51933884929</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2020</v>
       </c>
@@ -2385,7 +2342,7 @@
         <v>-1047</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="G12" s="1">
@@ -2393,7 +2350,7 @@
         <v>94.406154832505209</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100.28946024178444</v>
       </c>
       <c r="I12" s="1">
@@ -2401,7 +2358,7 @@
         <v>-5.5938451674947913</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.28946024178443724</v>
       </c>
       <c r="K12">
@@ -2413,19 +2370,19 @@
         <v>0.99478058550232185</v>
       </c>
       <c r="M12" s="1">
-        <f>$B$21 + $B$20*A12</f>
+        <f t="shared" si="7"/>
         <v>17619.727272727294</v>
       </c>
       <c r="N12" s="1">
-        <f>B12-M12</f>
+        <f t="shared" si="8"/>
         <v>50.272727272706106</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2527.3471074358881</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -2437,7 +2394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2482,7 +2439,7 @@
         <v>17671.074687839166</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -2506,7 +2463,7 @@
         <v>17557.056506020977</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2515,28 +2472,28 @@
         <v>403164778</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <f>(B14*B18 - B15*B16)/(B14*B17 - B15^2)</f>
         <v>-114.01818181818182</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <f>(B16 - B20*B15)/B14</f>
         <v>247936.45454545456</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2502,7 @@
         <v>48093.600000004655</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2554,7 +2511,7 @@
         <v>73.100843588387207</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -2563,7 +2520,7 @@
         <v>2.2621571627982053</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2571,10 +2528,10 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
@@ -2583,58 +2540,58 @@
         <v>18189.81818181818</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1">
         <f>(B12-B2)/(B14-1)</f>
         <v>-104.7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1">
         <f>(B12/B2)^(1/B14)*100</f>
         <v>99.478058550232191</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <f>B30-100</f>
         <v>-0.52194144976780876</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <f>MAX(B2:B12)-MIN(B2:B12)</f>
         <v>1098</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <f>_xlfn.STDEV.P(B2:B12)/B28*100</f>
         <v>2.015248578744679</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
   </sheetData>
@@ -2651,73 +2608,73 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="44" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.54296875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="29.7265625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="34.54296875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="53.1796875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="27.453125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="30.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="29.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="53.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2010</v>
       </c>
@@ -2764,7 +2721,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2011</v>
       </c>
@@ -2823,7 +2780,7 @@
         <v>0.99989314526900674</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2012</v>
       </c>
@@ -2882,7 +2839,7 @@
         <v>0.98626769970611805</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2013</v>
       </c>
@@ -2941,7 +2898,7 @@
         <v>1.0012460721638314</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2014</v>
       </c>
@@ -3000,7 +2957,7 @@
         <v>0.98917807477950326</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2015</v>
       </c>
@@ -3059,7 +3016,7 @@
         <v>0.99830425031453418</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2016</v>
       </c>
@@ -3118,7 +3075,7 @@
         <v>0.98575342465753424</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2017</v>
       </c>
@@ -3177,7 +3134,7 @@
         <v>1.0015008337965536</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2018</v>
       </c>
@@ -3236,7 +3193,7 @@
         <v>0.99295110173724821</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2019</v>
       </c>
@@ -3295,7 +3252,7 @@
         <v>0.98485187255449969</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2020</v>
       </c>
@@ -3354,66 +3311,66 @@
         <v>1.0028946024178444</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <f>SUM(C2:C12)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <f>SUM(B2:B12)</f>
         <v>200088</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <f>SUM(D2:D12)</f>
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <f>SUM(E2:E12)</f>
         <v>1187986</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <f>COUNT(B2:B12)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4">
         <f>($C$18*$C$17 - $C$14*$C$15)/($C$18*$C$16 - $C$14^2)</f>
         <v>-114.01818181818182</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="4">
@@ -3421,12 +3378,12 @@
         <v>18873.927272727273</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="4">
@@ -3434,12 +3391,12 @@
         <v>18189.81818181818</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="4">
@@ -3447,12 +3404,12 @@
         <v>-104.7</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="4">
@@ -3460,12 +3417,12 @@
         <v>99.426014473032666</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4">
@@ -3473,12 +3430,12 @@
         <v>-0.57398552696733418</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="e">
         <f>_xlfn.T.INV.2T(B26, B14-2)</f>
@@ -3489,12 +3446,12 @@
         <v>1098</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4">
@@ -3502,9 +3459,9 @@
         <v>2.015248578744679</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="4">
@@ -3512,12 +3469,12 @@
         <v>66.122200920306994</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4">
@@ -3525,9 +3482,9 @@
         <v>17505.709090909091</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="4">
@@ -3535,12 +3492,12 @@
         <v>17391.69090909091</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="4">
@@ -3548,12 +3505,12 @@
         <v>17439.586889988783</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="4">
@@ -3561,12 +3518,12 @@
         <v>17571.8312918294</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="4">
@@ -3574,12 +3531,12 @@
         <v>17325.568708170602</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="4">
@@ -3587,48 +3544,48 @@
         <v>17457.813110011219</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="e">
         <f>_xlfn.SINGLE(_xlfn.STDEV.P(B2:B12))/B28*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="E35" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="E36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E37" s="4" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E38" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E39" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E40" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
